--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_116_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_116_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1846132833586753, 3.7656728168192504]</t>
+          <t>[3.18309786535937, 3.7671882348185557]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.698131700797731, 0.8742369946926551]</t>
+          <t>[0.7107106503616549, 0.8616580451287312]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.05156560503175989, 0.34648680158070366]</t>
+          <t>[0.05165508319509149, 0.34639732341737206]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.009282862457666408</v>
+        <v>0.009243279545356753</v>
       </c>
       <c r="V2" t="n">
-        <v>0.009282862457666408</v>
+        <v>0.009243279545356753</v>
       </c>
       <c r="W2" t="n">
         <v>22.35305305305381</v>
       </c>
       <c r="X2" t="n">
-        <v>21.99499499499574</v>
+        <v>22.0461461461469</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.71111111111188</v>
+        <v>22.65995995996073</v>
       </c>
     </row>
   </sheetData>
